--- a/all-data/v1-data/22Oct2018/linear-v1-multipop-crude-rate-p.xlsx
+++ b/all-data/v1-data/22Oct2018/linear-v1-multipop-crude-rate-p.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Mutation rate</t>
+  </si>
+  <si>
+    <t>inf</t>
   </si>
 </sst>
 </file>
@@ -1283,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="CW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -1528,70 +1531,70 @@
         <v>0</v>
       </c>
       <c r="CB4" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="CC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="CH4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="CK4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>6</v>
+        <v>2.001200720432259</v>
       </c>
       <c r="CN4" t="n">
-        <v>9</v>
+        <v>3.00270243218897</v>
       </c>
       <c r="CO4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CQ4" t="n">
-        <v>11</v>
+        <v>2.002202422664932</v>
       </c>
       <c r="CR4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>14</v>
+        <v>3.004205888243541</v>
       </c>
       <c r="CT4" t="n">
-        <v>17</v>
+        <v>3.005108684764099</v>
       </c>
       <c r="CU4" t="n">
-        <v>19</v>
+        <v>2.003807233744114</v>
       </c>
       <c r="CV4" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>24</v>
+        <v>5.012028869286287</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1791,112 +1794,112 @@
         <v>0</v>
       </c>
       <c r="BN5" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="BO5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BP5" t="n">
-        <v>5</v>
+        <v>3.001500750375187</v>
       </c>
       <c r="BQ5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>6</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="BT5" t="n">
-        <v>8</v>
+        <v>2.00160128102482</v>
       </c>
       <c r="BU5" t="n">
-        <v>10</v>
+        <v>2.002002002002002</v>
       </c>
       <c r="BV5" t="n">
-        <v>12</v>
+        <v>2.002402883460152</v>
       </c>
       <c r="BW5" t="n">
-        <v>13</v>
+        <v>1.00130169219986</v>
       </c>
       <c r="BX5" t="n">
-        <v>17</v>
+        <v>4.006811579685465</v>
       </c>
       <c r="BY5" t="n">
-        <v>20</v>
+        <v>3.006012024048096</v>
       </c>
       <c r="BZ5" t="n">
-        <v>25</v>
+        <v>5.012531328320802</v>
       </c>
       <c r="CA5" t="n">
-        <v>29</v>
+        <v>4.011633737839735</v>
       </c>
       <c r="CB5" t="n">
-        <v>38</v>
+        <v>9.03433045573178</v>
       </c>
       <c r="CC5" t="n">
-        <v>43</v>
+        <v>5.021592849251783</v>
       </c>
       <c r="CD5" t="n">
-        <v>46</v>
+        <v>3.013863773357444</v>
       </c>
       <c r="CE5" t="n">
-        <v>50</v>
+        <v>4.020100502512562</v>
       </c>
       <c r="CF5" t="n">
-        <v>59</v>
+        <v>9.053415149381351</v>
       </c>
       <c r="CG5" t="n">
-        <v>64</v>
+        <v>5.03220611916264</v>
       </c>
       <c r="CH5" t="n">
-        <v>70</v>
+        <v>6.042296072507553</v>
       </c>
       <c r="CI5" t="n">
-        <v>80</v>
+        <v>10.08064516129032</v>
       </c>
       <c r="CJ5" t="n">
-        <v>93</v>
+        <v>13.12203492480065</v>
       </c>
       <c r="CK5" t="n">
-        <v>111</v>
+        <v>18.20204267367782</v>
       </c>
       <c r="CL5" t="n">
-        <v>126</v>
+        <v>15.19141178853555</v>
       </c>
       <c r="CM5" t="n">
-        <v>143</v>
+        <v>17.24662676270671</v>
       </c>
       <c r="CN5" t="n">
-        <v>162</v>
+        <v>19.31286846920106</v>
       </c>
       <c r="CO5" t="n">
-        <v>183</v>
+        <v>21.39146378730773</v>
       </c>
       <c r="CP5" t="n">
-        <v>213</v>
+        <v>30.65290691733933</v>
       </c>
       <c r="CQ5" t="n">
-        <v>246</v>
+        <v>33.83227393889686</v>
       </c>
       <c r="CR5" t="n">
-        <v>288</v>
+        <v>43.24546952224053</v>
       </c>
       <c r="CS5" t="n">
-        <v>328</v>
+        <v>41.35649296939619</v>
       </c>
       <c r="CT5" t="n">
-        <v>377</v>
+        <v>50.9196716200769</v>
       </c>
       <c r="CU5" t="n">
-        <v>432</v>
+        <v>57.48327759197324</v>
       </c>
       <c r="CV5" t="n">
-        <v>484</v>
+        <v>54.6448087431694</v>
       </c>
       <c r="CW5" t="n">
-        <v>531</v>
+        <v>49.63565318407434</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -2042,166 +2045,166 @@
         <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AW6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AY6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="BB6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="BD6" t="n">
-        <v>8</v>
+        <v>3.00240192153723</v>
       </c>
       <c r="BE6" t="n">
-        <v>11</v>
+        <v>3.003303633997398</v>
       </c>
       <c r="BF6" t="n">
-        <v>15</v>
+        <v>4.006009013520281</v>
       </c>
       <c r="BG6" t="n">
-        <v>16</v>
+        <v>1.001602564102564</v>
       </c>
       <c r="BH6" t="n">
-        <v>19</v>
+        <v>3.00571085061617</v>
       </c>
       <c r="BI6" t="n">
-        <v>24</v>
+        <v>5.012028869286287</v>
       </c>
       <c r="BJ6" t="n">
-        <v>31</v>
+        <v>7.021767479185475</v>
       </c>
       <c r="BK6" t="n">
-        <v>42</v>
+        <v>11.0463948584053</v>
       </c>
       <c r="BL6" t="n">
-        <v>53</v>
+        <v>11.05861063637278</v>
       </c>
       <c r="BM6" t="n">
-        <v>67</v>
+        <v>14.09443269908386</v>
       </c>
       <c r="BN6" t="n">
-        <v>78</v>
+        <v>11.08647450110865</v>
       </c>
       <c r="BO6" t="n">
-        <v>94</v>
+        <v>16.15182717544922</v>
       </c>
       <c r="BP6" t="n">
-        <v>112</v>
+        <v>18.20388349514563</v>
       </c>
       <c r="BQ6" t="n">
-        <v>140</v>
+        <v>28.39756592292089</v>
       </c>
       <c r="BR6" t="n">
-        <v>158</v>
+        <v>18.28896565738671</v>
       </c>
       <c r="BS6" t="n">
-        <v>178</v>
+        <v>20.36245163917735</v>
       </c>
       <c r="BT6" t="n">
-        <v>215</v>
+        <v>37.81297904956566</v>
       </c>
       <c r="BU6" t="n">
-        <v>248</v>
+        <v>33.83921246923708</v>
       </c>
       <c r="BV6" t="n">
-        <v>288</v>
+        <v>41.18616144975288</v>
       </c>
       <c r="BW6" t="n">
-        <v>337</v>
+        <v>50.70888957880575</v>
       </c>
       <c r="BX6" t="n">
-        <v>399</v>
+        <v>64.57660660347881</v>
       </c>
       <c r="BY6" t="n">
-        <v>469</v>
+        <v>73.44454936522925</v>
       </c>
       <c r="BZ6" t="n">
-        <v>536</v>
+        <v>70.79459002535926</v>
       </c>
       <c r="CA6" t="n">
-        <v>588</v>
+        <v>55.24861878453039</v>
       </c>
       <c r="CB6" t="n">
-        <v>654</v>
+        <v>70.61844639417933</v>
       </c>
       <c r="CC6" t="n">
-        <v>747</v>
+        <v>100.5079433697179</v>
       </c>
       <c r="CD6" t="n">
-        <v>843</v>
+        <v>104.8378289832915</v>
       </c>
       <c r="CE6" t="n">
-        <v>966</v>
+        <v>136.1523134823998</v>
       </c>
       <c r="CF6" t="n">
-        <v>1113</v>
+        <v>165.410149656802</v>
       </c>
       <c r="CG6" t="n">
-        <v>1243</v>
+        <v>148.4526664382779</v>
       </c>
       <c r="CH6" t="n">
-        <v>1403</v>
+        <v>186.11143422124</v>
       </c>
       <c r="CI6" t="n">
-        <v>1548</v>
+        <v>171.5570279223852</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1697</v>
+        <v>179.453209683247</v>
       </c>
       <c r="CK6" t="n">
-        <v>1868</v>
+        <v>210.2803738317757</v>
       </c>
       <c r="CL6" t="n">
-        <v>2073</v>
+        <v>258.6098145578403</v>
       </c>
       <c r="CM6" t="n">
-        <v>2259</v>
+        <v>240.2790337165741</v>
       </c>
       <c r="CN6" t="n">
-        <v>2483</v>
+        <v>297.9912199015565</v>
       </c>
       <c r="CO6" t="n">
-        <v>2715</v>
+        <v>318.4625943719972</v>
       </c>
       <c r="CP6" t="n">
-        <v>2960</v>
+        <v>348.0113636363636</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3238</v>
+        <v>411.1209701271814</v>
       </c>
       <c r="CR6" t="n">
-        <v>3513</v>
+        <v>423.9247726221674</v>
       </c>
       <c r="CS6" t="n">
-        <v>3801</v>
+        <v>464.5910630746895</v>
       </c>
       <c r="CT6" t="n">
-        <v>4092</v>
+        <v>492.552471225457</v>
       </c>
       <c r="CU6" t="n">
-        <v>4376</v>
+        <v>504.9786628733997</v>
       </c>
       <c r="CV6" t="n">
-        <v>4656</v>
+        <v>523.9520958083832</v>
       </c>
       <c r="CW6" t="n">
-        <v>4981</v>
+        <v>647.5393504682207</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -2323,190 +2326,190 @@
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AO7" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AP7" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="AQ7" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AS7" t="n">
-        <v>11</v>
+        <v>6.006607267994795</v>
       </c>
       <c r="AT7" t="n">
-        <v>14</v>
+        <v>3.004205888243541</v>
       </c>
       <c r="AU7" t="n">
-        <v>18</v>
+        <v>4.007212983370066</v>
       </c>
       <c r="AV7" t="n">
-        <v>26</v>
+        <v>8.020854220974533</v>
       </c>
       <c r="AW7" t="n">
-        <v>37</v>
+        <v>11.04085114925223</v>
       </c>
       <c r="AX7" t="n">
-        <v>58</v>
+        <v>21.12251056125528</v>
       </c>
       <c r="AY7" t="n">
-        <v>76</v>
+        <v>18.13784764207981</v>
       </c>
       <c r="AZ7" t="n">
-        <v>91</v>
+        <v>15.13775355737209</v>
       </c>
       <c r="BA7" t="n">
-        <v>106</v>
+        <v>15.16070345664039</v>
       </c>
       <c r="BB7" t="n">
-        <v>140</v>
+        <v>34.48275862068965</v>
       </c>
       <c r="BC7" t="n">
-        <v>167</v>
+        <v>27.45855791721753</v>
       </c>
       <c r="BD7" t="n">
-        <v>216</v>
+        <v>50.08176614881439</v>
       </c>
       <c r="BE7" t="n">
-        <v>273</v>
+        <v>58.59977382543436</v>
       </c>
       <c r="BF7" t="n">
-        <v>323</v>
+        <v>51.66890565257828</v>
       </c>
       <c r="BG7" t="n">
-        <v>395</v>
+        <v>74.96095783446121</v>
       </c>
       <c r="BH7" t="n">
-        <v>471</v>
+        <v>79.75653268968412</v>
       </c>
       <c r="BI7" t="n">
-        <v>556</v>
+        <v>90.00423549343498</v>
       </c>
       <c r="BJ7" t="n">
-        <v>639</v>
+        <v>88.66574083965389</v>
       </c>
       <c r="BK7" t="n">
-        <v>746</v>
+        <v>115.6256753836179</v>
       </c>
       <c r="BL7" t="n">
-        <v>877</v>
+        <v>143.5931162994629</v>
       </c>
       <c r="BM7" t="n">
-        <v>1012</v>
+        <v>150.2002670226969</v>
       </c>
       <c r="BN7" t="n">
-        <v>1153</v>
+        <v>159.3760596812479</v>
       </c>
       <c r="BO7" t="n">
-        <v>1335</v>
+        <v>210.0403923831506</v>
       </c>
       <c r="BP7" t="n">
-        <v>1520</v>
+        <v>218.1603773584906</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1706</v>
+        <v>224.2585001205691</v>
       </c>
       <c r="BR7" t="n">
-        <v>1946</v>
+        <v>297.9885771045443</v>
       </c>
       <c r="BS7" t="n">
-        <v>2177</v>
+        <v>295.283139460565</v>
       </c>
       <c r="BT7" t="n">
-        <v>2440</v>
+        <v>347.8835978835979</v>
       </c>
       <c r="BU7" t="n">
-        <v>2699</v>
+        <v>354.7459252157239</v>
       </c>
       <c r="BV7" t="n">
-        <v>3004</v>
+        <v>435.9634076615208</v>
       </c>
       <c r="BW7" t="n">
-        <v>3332</v>
+        <v>491.9016196760648</v>
       </c>
       <c r="BX7" t="n">
-        <v>3688</v>
+        <v>564.0050697084918</v>
       </c>
       <c r="BY7" t="n">
-        <v>4003</v>
+        <v>525.2626313156578</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4372</v>
+        <v>655.6503198294243</v>
       </c>
       <c r="CA7" t="n">
-        <v>4720</v>
+        <v>659.090909090909</v>
       </c>
       <c r="CB7" t="n">
-        <v>5094</v>
+        <v>762.3318385650224</v>
       </c>
       <c r="CC7" t="n">
-        <v>5485</v>
+        <v>866.0022148394241</v>
       </c>
       <c r="CD7" t="n">
-        <v>5835</v>
+        <v>840.3361344537816</v>
       </c>
       <c r="CE7" t="n">
-        <v>6182</v>
+        <v>908.8528025144054</v>
       </c>
       <c r="CF7" t="n">
-        <v>6569</v>
+        <v>1127.951034683766</v>
       </c>
       <c r="CG7" t="n">
-        <v>6900</v>
+        <v>1067.741935483871</v>
       </c>
       <c r="CH7" t="n">
-        <v>7225</v>
+        <v>1171.171171171171</v>
       </c>
       <c r="CI7" t="n">
-        <v>7548</v>
+        <v>1317.292006525285</v>
       </c>
       <c r="CJ7" t="n">
-        <v>7860</v>
+        <v>1457.943925233645</v>
       </c>
       <c r="CK7" t="n">
-        <v>8151</v>
+        <v>1573.82368848026</v>
       </c>
       <c r="CL7" t="n">
-        <v>8423</v>
+        <v>1724.793912492074</v>
       </c>
       <c r="CM7" t="n">
-        <v>8665</v>
+        <v>1812.734082397004</v>
       </c>
       <c r="CN7" t="n">
-        <v>8895</v>
+        <v>2081.447963800905</v>
       </c>
       <c r="CO7" t="n">
-        <v>9078</v>
+        <v>1984.815618221258</v>
       </c>
       <c r="CP7" t="n">
-        <v>9243</v>
+        <v>2179.656538969617</v>
       </c>
       <c r="CQ7" t="n">
-        <v>9384</v>
+        <v>2288.961038961039</v>
       </c>
       <c r="CR7" t="n">
-        <v>9491</v>
+        <v>2102.161100196463</v>
       </c>
       <c r="CS7" t="n">
-        <v>9595</v>
+        <v>2567.901234567902</v>
       </c>
       <c r="CT7" t="n">
-        <v>9673</v>
+        <v>2385.321100917432</v>
       </c>
       <c r="CU7" t="n">
-        <v>9741</v>
+        <v>2625.482625482625</v>
       </c>
       <c r="CV7" t="n">
-        <v>9801</v>
+        <v>3015.075376884422</v>
       </c>
       <c r="CW7" t="n">
-        <v>9848</v>
+        <v>3092.105263157895</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -2598,221 +2601,199 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>3.001500750375187</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>2.001400980686481</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>3.003003003003003</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>5.00751126690035</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>4.007614467488227</v>
       </c>
       <c r="AJ8" t="n">
-        <v>27</v>
+        <v>8.021658477890304</v>
       </c>
       <c r="AK8" t="n">
-        <v>37</v>
+        <v>10.03713740841112</v>
       </c>
       <c r="AL8" t="n">
-        <v>50</v>
+        <v>13.06532663316583</v>
       </c>
       <c r="AM8" t="n">
-        <v>64</v>
+        <v>14.09017713365539</v>
       </c>
       <c r="AN8" t="n">
-        <v>88</v>
+        <v>24.21307506053269</v>
       </c>
       <c r="AO8" t="n">
-        <v>118</v>
+        <v>30.35822707953855</v>
       </c>
       <c r="AP8" t="n">
-        <v>157</v>
+        <v>39.62206644315757</v>
       </c>
       <c r="AQ8" t="n">
-        <v>203</v>
+        <v>46.95314892313974</v>
       </c>
       <c r="AR8" t="n">
-        <v>245</v>
+        <v>43.05484366991286</v>
       </c>
       <c r="AS8" t="n">
-        <v>324</v>
+        <v>81.64530797850351</v>
       </c>
       <c r="AT8" t="n">
-        <v>418</v>
+        <v>98.10060530160717</v>
       </c>
       <c r="AU8" t="n">
-        <v>528</v>
+        <v>116.1317567567567</v>
       </c>
       <c r="AV8" t="n">
-        <v>670</v>
+        <v>152.1972132904609</v>
       </c>
       <c r="AW8" t="n">
-        <v>814</v>
+        <v>156.7602873938602</v>
       </c>
       <c r="AX8" t="n">
-        <v>981</v>
+        <v>185.1646524004879</v>
       </c>
       <c r="AY8" t="n">
-        <v>1190</v>
+        <v>237.2304199772985</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1399</v>
+        <v>242.9950005813278</v>
       </c>
       <c r="BA8" t="n">
-        <v>1677</v>
+        <v>334.0141775801995</v>
       </c>
       <c r="BB8" t="n">
-        <v>1935</v>
+        <v>319.9008059516429</v>
       </c>
       <c r="BC8" t="n">
-        <v>2219</v>
+        <v>364.991646317954</v>
       </c>
       <c r="BD8" t="n">
-        <v>2522</v>
+        <v>405.1885530890612</v>
       </c>
       <c r="BE8" t="n">
-        <v>2852</v>
+        <v>461.6675993284835</v>
       </c>
       <c r="BF8" t="n">
-        <v>3209</v>
+        <v>525.6957738182889</v>
       </c>
       <c r="BG8" t="n">
-        <v>3614</v>
+        <v>634.1998120889446</v>
       </c>
       <c r="BH8" t="n">
-        <v>4005</v>
+        <v>652.210175145955</v>
       </c>
       <c r="BI8" t="n">
-        <v>4395</v>
+        <v>695.807314897413</v>
       </c>
       <c r="BJ8" t="n">
-        <v>4857</v>
+        <v>898.3083803227688</v>
       </c>
       <c r="BK8" t="n">
-        <v>5311</v>
+        <v>968.2235018127533</v>
       </c>
       <c r="BL8" t="n">
-        <v>5745</v>
+        <v>1019.976498237368</v>
       </c>
       <c r="BM8" t="n">
-        <v>6144</v>
+        <v>1034.751037344398</v>
       </c>
       <c r="BN8" t="n">
-        <v>6568</v>
+        <v>1235.431235431235</v>
       </c>
       <c r="BO8" t="n">
-        <v>6978</v>
+        <v>1356.717405691595</v>
       </c>
       <c r="BP8" t="n">
-        <v>7371</v>
+        <v>1494.864967668315</v>
       </c>
       <c r="BQ8" t="n">
-        <v>7711</v>
+        <v>1485.364788117082</v>
       </c>
       <c r="BR8" t="n">
-        <v>8035</v>
+        <v>1648.854961832061</v>
       </c>
       <c r="BS8" t="n">
-        <v>8341</v>
+        <v>1844.484629294756</v>
       </c>
       <c r="BT8" t="n">
-        <v>8620</v>
+        <v>2021.739130434783</v>
       </c>
       <c r="BU8" t="n">
-        <v>8866</v>
+        <v>2169.312169312169</v>
       </c>
       <c r="BV8" t="n">
-        <v>9065</v>
+        <v>2128.342245989305</v>
       </c>
       <c r="BW8" t="n">
-        <v>9245</v>
+        <v>2384.105960264901</v>
       </c>
       <c r="BX8" t="n">
-        <v>9412</v>
+        <v>2840.136054421769</v>
       </c>
       <c r="BY8" t="n">
-        <v>9547</v>
+        <v>2980.132450331126</v>
       </c>
       <c r="BZ8" t="n">
-        <v>9652</v>
+        <v>3017.241379310345</v>
       </c>
       <c r="CA8" t="n">
-        <v>9731</v>
+        <v>2936.802973977695</v>
       </c>
       <c r="CB8" t="n">
-        <v>9794</v>
+        <v>3058.252427184466</v>
       </c>
       <c r="CC8" t="n">
-        <v>9853</v>
+        <v>4013.605442176871</v>
       </c>
       <c r="CD8" t="n">
-        <v>9895</v>
+        <v>4000</v>
       </c>
       <c r="CE8" t="n">
-        <v>9929</v>
+        <v>4788.732394366197</v>
       </c>
       <c r="CF8" t="n">
-        <v>9953</v>
+        <v>5106.382978723404</v>
       </c>
       <c r="CG8" t="n">
-        <v>9968</v>
+        <v>4687.5</v>
       </c>
       <c r="CH8" t="n">
-        <v>9979</v>
+        <v>5238.095238095239</v>
       </c>
       <c r="CI8" t="n">
-        <v>9988</v>
+        <v>7500</v>
       </c>
       <c r="CJ8" t="n">
-        <v>9994</v>
+        <v>10000</v>
       </c>
       <c r="CK8" t="n">
-        <v>9997</v>
-      </c>
-      <c r="CL8" t="n">
         <v>10000</v>
       </c>
-      <c r="CM8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CN8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CO8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CP8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CS8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CT8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CW8" t="n">
-        <v>10000</v>
-      </c>
+      <c r="CL8" t="s">
+        <v>1</v>
+      </c>
+      <c r="CM8" t="s"/>
+      <c r="CN8" t="s"/>
+      <c r="CO8" t="s"/>
+      <c r="CP8" t="s"/>
+      <c r="CQ8" t="s"/>
+      <c r="CR8" t="s"/>
+      <c r="CS8" t="s"/>
+      <c r="CT8" t="s"/>
+      <c r="CU8" t="s"/>
+      <c r="CV8" t="s"/>
+      <c r="CW8" t="s"/>
     </row>
     <row r="9" spans="1:101">
       <c r="A9" s="1" t="n">
@@ -2861,263 +2842,205 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>1.000100010001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.000200040008002</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.000800320128052</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3.002101471029721</v>
+      </c>
+      <c r="X9" t="n">
+        <v>6.007810153199159</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.001401962747847</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2.003205128205128</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>4.008016032064128</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>8.022462896109104</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10.03814495081309</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>22.1327967806841</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>28.24858757062147</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>53.75798762551982</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>56.09955120359037</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>46.11128189363664</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>96.21353196772192</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>110.8786610878661</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>168.0493512018719</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>190.7652287014958</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>236.3253078886054</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>326.5352887259395</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>412.7893104271057</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>490.6132665832291</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>550.6404331176548</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>648.2002249718785</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>824.9619482496196</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>929.9617368158376</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>1086.315012910365</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1135.756828917642</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1354.944029850746</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1505.232090152938</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1665.10172143975</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1733.382298934998</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1911.636045494313</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>2133.757961783439</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>2627.345844504021</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>2590.717299578059</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>2714.592274678112</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>2944.444444444444</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>3138.686131386861</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>3873.417721518987</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>3210.702341137124</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4514.563106796117</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>4013.605442176871</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>5638.297872340426</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>7735.849056603774</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>3947.368421052632</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>5200</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>6666.666666666666</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>3636.363636363636</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>2222.222222222222</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>20000</v>
+      </c>
+      <c r="BT9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>4</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>88</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>141</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>196</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>241</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>334</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>440</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>598</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>774</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>987</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1272</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1618</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>2010</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>2427</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>2888</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>3430</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3989</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>4578</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>5131</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5712</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6273</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>6805</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>7277</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>7714</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>8116</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>8508</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>8815</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>9068</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>9280</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>9452</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>9605</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>9701</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>9794</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>9853</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>9906</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>9947</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>9962</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>9975</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>9985</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>9989</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>9991</v>
-      </c>
-      <c r="BS9" t="n">
-        <v>9997</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>10000</v>
-      </c>
+      <c r="BU9" t="s"/>
+      <c r="BV9" t="s"/>
+      <c r="BW9" t="s"/>
+      <c r="BX9" t="s"/>
+      <c r="BY9" t="s"/>
+      <c r="BZ9" t="s"/>
+      <c r="CA9" t="s"/>
+      <c r="CB9" t="s"/>
+      <c r="CC9" t="s"/>
+      <c r="CD9" t="s"/>
+      <c r="CE9" t="s"/>
+      <c r="CF9" t="s"/>
+      <c r="CG9" t="s"/>
+      <c r="CH9" t="s"/>
+      <c r="CI9" t="s"/>
+      <c r="CJ9" t="s"/>
+      <c r="CK9" t="s"/>
+      <c r="CL9" t="s"/>
+      <c r="CM9" t="s"/>
+      <c r="CN9" t="s"/>
+      <c r="CO9" t="s"/>
+      <c r="CP9" t="s"/>
+      <c r="CQ9" t="s"/>
+      <c r="CR9" t="s"/>
+      <c r="CS9" t="s"/>
+      <c r="CT9" t="s"/>
+      <c r="CU9" t="s"/>
+      <c r="CV9" t="s"/>
+      <c r="CW9" t="s"/>
     </row>
     <row r="10" spans="1:101">
       <c r="A10" s="1" t="n">
@@ -3160,269 +3083,181 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>1.000100010001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.001200480192077</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.001200720432259</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.007208650380456</v>
+      </c>
+      <c r="T10" t="n">
+        <v>14.03649488670543</v>
+      </c>
+      <c r="U10" t="n">
+        <v>17.07341568745606</v>
+      </c>
+      <c r="V10" t="n">
+        <v>25.17116391461941</v>
+      </c>
+      <c r="W10" t="n">
+        <v>29.28405533676663</v>
+      </c>
+      <c r="X10" t="n">
+        <v>42.59202920596289</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>56.08810932082399</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>73.96753647010479</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>95.41588881974695</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>133.4734629532317</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>199.3782827741451</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>255.0291304825767</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>322.2512197889482</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>395.1403632932295</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>458.919319022946</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>693.9313984168865</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>816.2100456621005</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>1029.272898961284</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1168.922481982774</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>1442.075623491553</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1674.101901854895</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2078.84288145207</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>2525.75488454707</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>3129.664179104478</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>3341.630367143746</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>3711.60409556314</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>4487.021013597034</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>5647.969052224371</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5525.525525525525</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>7076.923076923077</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>10526.31578947368</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7592.592592592593</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>13478.26086956522</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>13000</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>10000</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="s">
         <v>1</v>
       </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>6</v>
-      </c>
-      <c r="S10" t="n">
-        <v>12</v>
-      </c>
-      <c r="T10" t="n">
-        <v>26</v>
-      </c>
-      <c r="U10" t="n">
-        <v>43</v>
-      </c>
-      <c r="V10" t="n">
-        <v>68</v>
-      </c>
-      <c r="W10" t="n">
-        <v>97</v>
-      </c>
-      <c r="X10" t="n">
-        <v>139</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>194</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>266</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>358</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>485</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>671</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>903</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1187</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1522</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>1894</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2420</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>2992</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>3646</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>4311</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>5028</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>5741</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>6474</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7185</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>7856</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>8393</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>8828</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>9191</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>9483</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9667</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>9805</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>9905</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>9946</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>9977</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>9990</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>9996</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>9998</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>9999</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>9999</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>10000</v>
-      </c>
+      <c r="BF10" t="s"/>
+      <c r="BG10" t="s"/>
+      <c r="BH10" t="s"/>
+      <c r="BI10" t="s"/>
+      <c r="BJ10" t="s"/>
+      <c r="BK10" t="s"/>
+      <c r="BL10" t="s"/>
+      <c r="BM10" t="s"/>
+      <c r="BN10" t="s"/>
+      <c r="BO10" t="s"/>
+      <c r="BP10" t="s"/>
+      <c r="BQ10" t="s"/>
+      <c r="BR10" t="s"/>
+      <c r="BS10" t="s"/>
+      <c r="BT10" t="s"/>
+      <c r="BU10" t="s"/>
+      <c r="BV10" t="s"/>
+      <c r="BW10" t="s"/>
+      <c r="BX10" t="s"/>
+      <c r="BY10" t="s"/>
+      <c r="BZ10" t="s"/>
+      <c r="CA10" t="s"/>
+      <c r="CB10" t="s"/>
+      <c r="CC10" t="s"/>
+      <c r="CD10" t="s"/>
+      <c r="CE10" t="s"/>
+      <c r="CF10" t="s"/>
+      <c r="CG10" t="s"/>
+      <c r="CH10" t="s"/>
+      <c r="CI10" t="s"/>
+      <c r="CJ10" t="s"/>
+      <c r="CK10" t="s"/>
+      <c r="CL10" t="s"/>
+      <c r="CM10" t="s"/>
+      <c r="CN10" t="s"/>
+      <c r="CO10" t="s"/>
+      <c r="CP10" t="s"/>
+      <c r="CQ10" t="s"/>
+      <c r="CR10" t="s"/>
+      <c r="CS10" t="s"/>
+      <c r="CT10" t="s"/>
+      <c r="CU10" t="s"/>
+      <c r="CV10" t="s"/>
+      <c r="CW10" t="s"/>
     </row>
     <row r="11" spans="1:101">
       <c r="A11" s="1" t="n">
@@ -3447,287 +3282,175 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>1.000100010001</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.000600180054016</v>
+      </c>
+      <c r="K11" t="n">
+        <v>4.002801961372962</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.003003003003003</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15.03759398496241</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.011633737839735</v>
+      </c>
+      <c r="O11" t="n">
+        <v>17.07856138235885</v>
+      </c>
+      <c r="P11" t="n">
+        <v>31.24055225234304</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>47.59011745646011</v>
+      </c>
+      <c r="R11" t="n">
+        <v>61.12469437652812</v>
+      </c>
+      <c r="S11" t="n">
+        <v>100.8437950195514</v>
+      </c>
+      <c r="T11" t="n">
+        <v>181.2467260345731</v>
+      </c>
+      <c r="U11" t="n">
+        <v>249.1141415226028</v>
+      </c>
+      <c r="V11" t="n">
+        <v>355.8323140220171</v>
+      </c>
+      <c r="W11" t="n">
+        <v>466.7132216014898</v>
+      </c>
+      <c r="X11" t="n">
+        <v>504.9517055874801</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>659.455232633911</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>814.6582100070473</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>960.9145682063958</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1129.642365887208</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1453.328081922017</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1633.447880870561</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>1942.544459644323</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2244.556113902847</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3000.871080139373</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3195.402298850575</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>3561.964146531567</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>4953.379953379953</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>5600.000000000001</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>6369.047619047618</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>7409.326424870466</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>9494.949494949495</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>11063.82978723404</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>10434.78260869565</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>28333.33333333334</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="AS11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>10</v>
-      </c>
-      <c r="M11" t="n">
-        <v>25</v>
-      </c>
-      <c r="N11" t="n">
-        <v>29</v>
-      </c>
-      <c r="O11" t="n">
-        <v>46</v>
-      </c>
-      <c r="P11" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>124</v>
-      </c>
-      <c r="R11" t="n">
-        <v>184</v>
-      </c>
-      <c r="S11" t="n">
-        <v>282</v>
-      </c>
-      <c r="T11" t="n">
-        <v>455</v>
-      </c>
-      <c r="U11" t="n">
-        <v>687</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1007</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1408</v>
-      </c>
-      <c r="X11" t="n">
-        <v>1821</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>2327</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>2905</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>3527</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>4184</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>4922</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>5635</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6345</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>7015</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>7704</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>8260</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>8717</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>9142</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>9450</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>9664</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>9807</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>9901</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>9953</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>9977</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>9994</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>9999</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>10000</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>10000</v>
-      </c>
+      <c r="AT11" t="s"/>
+      <c r="AU11" t="s"/>
+      <c r="AV11" t="s"/>
+      <c r="AW11" t="s"/>
+      <c r="AX11" t="s"/>
+      <c r="AY11" t="s"/>
+      <c r="AZ11" t="s"/>
+      <c r="BA11" t="s"/>
+      <c r="BB11" t="s"/>
+      <c r="BC11" t="s"/>
+      <c r="BD11" t="s"/>
+      <c r="BE11" t="s"/>
+      <c r="BF11" t="s"/>
+      <c r="BG11" t="s"/>
+      <c r="BH11" t="s"/>
+      <c r="BI11" t="s"/>
+      <c r="BJ11" t="s"/>
+      <c r="BK11" t="s"/>
+      <c r="BL11" t="s"/>
+      <c r="BM11" t="s"/>
+      <c r="BN11" t="s"/>
+      <c r="BO11" t="s"/>
+      <c r="BP11" t="s"/>
+      <c r="BQ11" t="s"/>
+      <c r="BR11" t="s"/>
+      <c r="BS11" t="s"/>
+      <c r="BT11" t="s"/>
+      <c r="BU11" t="s"/>
+      <c r="BV11" t="s"/>
+      <c r="BW11" t="s"/>
+      <c r="BX11" t="s"/>
+      <c r="BY11" t="s"/>
+      <c r="BZ11" t="s"/>
+      <c r="CA11" t="s"/>
+      <c r="CB11" t="s"/>
+      <c r="CC11" t="s"/>
+      <c r="CD11" t="s"/>
+      <c r="CE11" t="s"/>
+      <c r="CF11" t="s"/>
+      <c r="CG11" t="s"/>
+      <c r="CH11" t="s"/>
+      <c r="CI11" t="s"/>
+      <c r="CJ11" t="s"/>
+      <c r="CK11" t="s"/>
+      <c r="CL11" t="s"/>
+      <c r="CM11" t="s"/>
+      <c r="CN11" t="s"/>
+      <c r="CO11" t="s"/>
+      <c r="CP11" t="s"/>
+      <c r="CQ11" t="s"/>
+      <c r="CR11" t="s"/>
+      <c r="CS11" t="s"/>
+      <c r="CT11" t="s"/>
+      <c r="CU11" t="s"/>
+      <c r="CV11" t="s"/>
+      <c r="CW11" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
